--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -444,10 +444,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9.099108368629131E-06</v>
+        <v>0.003824935621960482</v>
       </c>
       <c r="E2">
-        <v>9.099108368629131E-06</v>
+        <v>0.003824935621960482</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.001734886096098E-13</v>
+        <v>5.254082069959265E-16</v>
       </c>
       <c r="E3">
-        <v>3.001734886096098E-13</v>
+        <v>5.254082069959265E-16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,10 +472,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>4.040845763074958E-45</v>
+        <v>3.512170733712964E-35</v>
       </c>
       <c r="E4">
-        <v>4.040845763074958E-45</v>
+        <v>3.512170733712964E-35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.019217804851847E-43</v>
+        <v>5.055500235594061E-42</v>
       </c>
       <c r="E5">
-        <v>2.019217804851847E-43</v>
+        <v>5.055500235594061E-42</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -500,10 +500,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>9.974499313537949E-06</v>
+        <v>6.318673677991846E-06</v>
       </c>
       <c r="E6">
-        <v>9.974499313537949E-06</v>
+        <v>6.318673677991846E-06</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.953736722905887E-06</v>
+        <v>0.0006395524833351374</v>
       </c>
       <c r="G7">
         <v>1</v>
